--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1544.169723754733</v>
+        <v>1666.040389036943</v>
       </c>
       <c r="AB2" t="n">
-        <v>2112.80114000149</v>
+        <v>2279.549960794904</v>
       </c>
       <c r="AC2" t="n">
-        <v>1911.158364534772</v>
+        <v>2061.992911905102</v>
       </c>
       <c r="AD2" t="n">
-        <v>1544169.723754733</v>
+        <v>1666040.389036943</v>
       </c>
       <c r="AE2" t="n">
-        <v>2112801.14000149</v>
+        <v>2279549.960794904</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.081005269691777e-07</v>
+        <v>1.495197547271257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80497685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1911158.364534772</v>
+        <v>2061992.911905102</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>918.0696887508385</v>
+        <v>1003.268300845993</v>
       </c>
       <c r="AB3" t="n">
-        <v>1256.143450525051</v>
+        <v>1372.715950291132</v>
       </c>
       <c r="AC3" t="n">
-        <v>1136.258882615345</v>
+        <v>1241.705866614283</v>
       </c>
       <c r="AD3" t="n">
-        <v>918069.6887508385</v>
+        <v>1003268.300845993</v>
       </c>
       <c r="AE3" t="n">
-        <v>1256143.450525051</v>
+        <v>1372715.950291132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.137338338340451e-06</v>
+        <v>2.104373697517797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.36226851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1136258.882615345</v>
+        <v>1241705.866614283</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>766.3304436078008</v>
+        <v>851.5289661944049</v>
       </c>
       <c r="AB4" t="n">
-        <v>1048.527121057309</v>
+        <v>1165.099498353842</v>
       </c>
       <c r="AC4" t="n">
-        <v>948.4571642406559</v>
+        <v>1053.904037458367</v>
       </c>
       <c r="AD4" t="n">
-        <v>766330.4436078009</v>
+        <v>851528.9661944049</v>
       </c>
       <c r="AE4" t="n">
-        <v>1048527.121057309</v>
+        <v>1165099.498353842</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267373881641658e-06</v>
+        <v>2.344973497806588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>948457.1642406558</v>
+        <v>1053904.037458367</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>706.9432934132948</v>
+        <v>779.9463048947716</v>
       </c>
       <c r="AB5" t="n">
-        <v>967.271002185028</v>
+        <v>1067.156943159548</v>
       </c>
       <c r="AC5" t="n">
-        <v>874.9560153098661</v>
+        <v>965.3089822685765</v>
       </c>
       <c r="AD5" t="n">
-        <v>706943.2934132948</v>
+        <v>779946.3048947717</v>
       </c>
       <c r="AE5" t="n">
-        <v>967271.002185028</v>
+        <v>1067156.943159548</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.334597425836144e-06</v>
+        <v>2.469354654660244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38599537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>874956.0153098661</v>
+        <v>965308.9822685765</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>669.9221985634023</v>
+        <v>730.9002911403443</v>
       </c>
       <c r="AB6" t="n">
-        <v>916.6171069559696</v>
+        <v>1000.050023383324</v>
       </c>
       <c r="AC6" t="n">
-        <v>829.1364567482807</v>
+        <v>904.6066527306416</v>
       </c>
       <c r="AD6" t="n">
-        <v>669922.1985634023</v>
+        <v>730900.2911403442</v>
       </c>
       <c r="AE6" t="n">
-        <v>916617.1069559696</v>
+        <v>1000050.023383324</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.377820064017442e-06</v>
+        <v>2.549327851605993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>829136.4567482807</v>
+        <v>904606.6527306417</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>626.8254862190697</v>
+        <v>699.9137490465671</v>
       </c>
       <c r="AB7" t="n">
-        <v>857.6502838336913</v>
+        <v>957.6528694608608</v>
       </c>
       <c r="AC7" t="n">
-        <v>775.7973444643368</v>
+        <v>866.2558236737593</v>
       </c>
       <c r="AD7" t="n">
-        <v>626825.4862190697</v>
+        <v>699913.7490465671</v>
       </c>
       <c r="AE7" t="n">
-        <v>857650.2838336914</v>
+        <v>957652.8694608607</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.40833325087447e-06</v>
+        <v>2.605785236084098e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.78993055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>775797.3444643368</v>
+        <v>866255.8236737594</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>598.4210048218981</v>
+        <v>671.5092676493954</v>
       </c>
       <c r="AB8" t="n">
-        <v>818.7860192688026</v>
+        <v>918.7886048959718</v>
       </c>
       <c r="AC8" t="n">
-        <v>740.642230763183</v>
+        <v>831.1007099726056</v>
       </c>
       <c r="AD8" t="n">
-        <v>598421.0048218981</v>
+        <v>671509.2676493954</v>
       </c>
       <c r="AE8" t="n">
-        <v>818786.0192688026</v>
+        <v>918788.6048959718</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.431231270615716e-06</v>
+        <v>2.648152567637375e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.61631944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>740642.230763183</v>
+        <v>831100.7099726056</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>578.8499067114894</v>
+        <v>639.7426584338597</v>
       </c>
       <c r="AB9" t="n">
-        <v>792.0079794182295</v>
+        <v>875.3241287233864</v>
       </c>
       <c r="AC9" t="n">
-        <v>716.4198494527337</v>
+        <v>791.7844224031561</v>
       </c>
       <c r="AD9" t="n">
-        <v>578849.9067114894</v>
+        <v>639742.6584338597</v>
       </c>
       <c r="AE9" t="n">
-        <v>792007.9794182295</v>
+        <v>875324.1287233863</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44756449111922e-06</v>
+        <v>2.678373301841662e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.49768518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>716419.8494527338</v>
+        <v>791784.4224031561</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>572.1395100853779</v>
+        <v>633.0322618077481</v>
       </c>
       <c r="AB10" t="n">
-        <v>782.8265187125784</v>
+        <v>866.1426680177349</v>
       </c>
       <c r="AC10" t="n">
-        <v>708.1146544705688</v>
+        <v>783.4792274209909</v>
       </c>
       <c r="AD10" t="n">
-        <v>572139.5100853778</v>
+        <v>633032.2618077481</v>
       </c>
       <c r="AE10" t="n">
-        <v>782826.5187125783</v>
+        <v>866142.6680177349</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.451923517813082e-06</v>
+        <v>2.686438642481391e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.46585648148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>708114.6544705688</v>
+        <v>783479.2274209909</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>574.5544423674464</v>
+        <v>635.4471940898167</v>
       </c>
       <c r="AB11" t="n">
-        <v>786.1307356001977</v>
+        <v>869.4468849053542</v>
       </c>
       <c r="AC11" t="n">
-        <v>711.1035215359311</v>
+        <v>786.4680944863535</v>
       </c>
       <c r="AD11" t="n">
-        <v>574554.4423674464</v>
+        <v>635447.1940898167</v>
       </c>
       <c r="AE11" t="n">
-        <v>786130.7356001977</v>
+        <v>869446.8849053542</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.451240778692356e-06</v>
+        <v>2.685175396357096e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.47164351851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>711103.5215359312</v>
+        <v>786468.0944863535</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1155.942618725204</v>
+        <v>1249.967064440921</v>
       </c>
       <c r="AB2" t="n">
-        <v>1581.611687529004</v>
+        <v>1710.260082223037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1430.66488787718</v>
+        <v>1547.035260340771</v>
       </c>
       <c r="AD2" t="n">
-        <v>1155942.618725204</v>
+        <v>1249967.064440921</v>
       </c>
       <c r="AE2" t="n">
-        <v>1581611.687529004</v>
+        <v>1710260.082223037</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.573408898175803e-07</v>
+        <v>1.824839484708136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.42071759259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1430664.88787718</v>
+        <v>1547035.260340771</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>748.005637694849</v>
+        <v>818.5026591451318</v>
       </c>
       <c r="AB3" t="n">
-        <v>1023.454313173827</v>
+        <v>1119.91144803119</v>
       </c>
       <c r="AC3" t="n">
-        <v>925.7772699516668</v>
+        <v>1013.028671236682</v>
       </c>
       <c r="AD3" t="n">
-        <v>748005.6376948491</v>
+        <v>818502.6591451318</v>
       </c>
       <c r="AE3" t="n">
-        <v>1023454.313173827</v>
+        <v>1119911.44803119</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262292618694833e-06</v>
+        <v>2.406124543879964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.4537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>925777.2699516668</v>
+        <v>1013028.671236682</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>644.1026963147523</v>
+        <v>714.5143769104634</v>
       </c>
       <c r="AB4" t="n">
-        <v>881.2897249033196</v>
+        <v>977.6300926384845</v>
       </c>
       <c r="AC4" t="n">
-        <v>797.1806704564432</v>
+        <v>884.3264487095196</v>
       </c>
       <c r="AD4" t="n">
-        <v>644102.6963147523</v>
+        <v>714514.3769104634</v>
       </c>
       <c r="AE4" t="n">
-        <v>881289.7249033195</v>
+        <v>977630.0926384844</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.378394853615676e-06</v>
+        <v>2.627433321975491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.40335648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>797180.6704564432</v>
+        <v>884326.4487095196</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>583.9942715915678</v>
+        <v>654.4912035332995</v>
       </c>
       <c r="AB5" t="n">
-        <v>799.0467264005141</v>
+        <v>895.5037387883284</v>
       </c>
       <c r="AC5" t="n">
-        <v>722.7868283019724</v>
+        <v>810.0381188057609</v>
       </c>
       <c r="AD5" t="n">
-        <v>583994.2715915678</v>
+        <v>654491.2035332995</v>
       </c>
       <c r="AE5" t="n">
-        <v>799046.7264005141</v>
+        <v>895503.7387883284</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.437722715353421e-06</v>
+        <v>2.74052138265884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.93460648148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>722786.8283019724</v>
+        <v>810038.1188057609</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>547.2744198581796</v>
+        <v>617.7713517999115</v>
       </c>
       <c r="AB6" t="n">
-        <v>748.8050052933652</v>
+        <v>845.2620176811798</v>
       </c>
       <c r="AC6" t="n">
-        <v>677.3401065425915</v>
+        <v>764.5913970463799</v>
       </c>
       <c r="AD6" t="n">
-        <v>547274.4198581796</v>
+        <v>617771.3517999115</v>
       </c>
       <c r="AE6" t="n">
-        <v>748805.0052933652</v>
+        <v>845262.0176811798</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.477437611809731e-06</v>
+        <v>2.816224104599799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.63946759259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>677340.1065425915</v>
+        <v>764591.39704638</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>521.656642717121</v>
+        <v>580.3899520346865</v>
       </c>
       <c r="AB7" t="n">
-        <v>713.7536324324053</v>
+        <v>794.1151373714328</v>
       </c>
       <c r="AC7" t="n">
-        <v>645.6339875125706</v>
+        <v>718.3259032082977</v>
       </c>
       <c r="AD7" t="n">
-        <v>521656.6427171211</v>
+        <v>580389.9520346866</v>
       </c>
       <c r="AE7" t="n">
-        <v>713753.6324324053</v>
+        <v>794115.1373714327</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.497702531615756e-06</v>
+        <v>2.854852169283763e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.49768518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>645633.9875125706</v>
+        <v>718325.9032082978</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>524.6596300833925</v>
+        <v>583.392939400958</v>
       </c>
       <c r="AB8" t="n">
-        <v>717.8624522293902</v>
+        <v>798.2239571684178</v>
       </c>
       <c r="AC8" t="n">
-        <v>649.3506673148961</v>
+        <v>722.0425830106235</v>
       </c>
       <c r="AD8" t="n">
-        <v>524659.6300833925</v>
+        <v>583392.939400958</v>
       </c>
       <c r="AE8" t="n">
-        <v>717862.4522293903</v>
+        <v>798223.9571684177</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.499332417927232e-06</v>
+        <v>2.857958984137702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>649350.6673148961</v>
+        <v>722042.5830106235</v>
       </c>
     </row>
     <row r="9">
@@ -5220,28 +5220,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>526.8313885257271</v>
+        <v>585.5646978432927</v>
       </c>
       <c r="AB9" t="n">
-        <v>720.8339479414132</v>
+        <v>801.1954528804405</v>
       </c>
       <c r="AC9" t="n">
-        <v>652.0385676466839</v>
+        <v>724.7304833424113</v>
       </c>
       <c r="AD9" t="n">
-        <v>526831.3885257271</v>
+        <v>585564.6978432927</v>
       </c>
       <c r="AE9" t="n">
-        <v>720833.9479414131</v>
+        <v>801195.4528804405</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.499006440664937e-06</v>
+        <v>2.857337621166914e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>652038.5676466839</v>
+        <v>724730.4833424112</v>
       </c>
     </row>
   </sheetData>
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.5754008770795</v>
+        <v>589.2708044782042</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.4836943471555</v>
+        <v>806.2663114802118</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.7217417638782</v>
+        <v>729.3173863144149</v>
       </c>
       <c r="AD2" t="n">
-        <v>526575.4008770795</v>
+        <v>589270.8044782042</v>
       </c>
       <c r="AE2" t="n">
-        <v>720483.6943471555</v>
+        <v>806266.3114802118</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.432359850117207e-06</v>
+        <v>3.050551627973946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>651721.7417638781</v>
+        <v>729317.3863144149</v>
       </c>
     </row>
     <row r="3">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.4720124210123</v>
+        <v>468.167326513586</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.7846955571349</v>
+        <v>640.5671902206431</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.8368228583718</v>
+        <v>579.4323566276821</v>
       </c>
       <c r="AD3" t="n">
-        <v>405472.0124210123</v>
+        <v>468167.326513586</v>
       </c>
       <c r="AE3" t="n">
-        <v>554784.6955571349</v>
+        <v>640567.1902206431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.617020116061127e-06</v>
+        <v>3.443829668301057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.84780092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>501836.8228583718</v>
+        <v>579432.3566276821</v>
       </c>
     </row>
     <row r="4">
@@ -5729,28 +5729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.3671385224392</v>
+        <v>469.0624526150129</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.0094465792836</v>
+        <v>641.7919412427917</v>
       </c>
       <c r="AC4" t="n">
-        <v>502.9446853619154</v>
+        <v>580.5402191312257</v>
       </c>
       <c r="AD4" t="n">
-        <v>406367.1385224392</v>
+        <v>469062.4526150129</v>
       </c>
       <c r="AE4" t="n">
-        <v>556009.4465792836</v>
+        <v>641791.9412427917</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.619748189589518e-06</v>
+        <v>3.449639750971681e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83043981481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>502944.6853619154</v>
+        <v>580540.2191312257</v>
       </c>
     </row>
   </sheetData>
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>710.8195892507357</v>
+        <v>787.6221615741381</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.5747211599177</v>
+        <v>1077.659388903154</v>
       </c>
       <c r="AC2" t="n">
-        <v>879.7535547896086</v>
+        <v>974.8090893306884</v>
       </c>
       <c r="AD2" t="n">
-        <v>710819.5892507357</v>
+        <v>787622.1615741381</v>
       </c>
       <c r="AE2" t="n">
-        <v>972574.7211599177</v>
+        <v>1077659.388903154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.242004030542695e-06</v>
+        <v>2.521697582119678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.51273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>879753.5547896087</v>
+        <v>974809.0893306884</v>
       </c>
     </row>
     <row r="3">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.8818096907818</v>
+        <v>582.5419937673917</v>
       </c>
       <c r="AB3" t="n">
-        <v>707.2204952350019</v>
+        <v>797.0596558115004</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.7243637599717</v>
+        <v>720.9894009411031</v>
       </c>
       <c r="AD3" t="n">
-        <v>516881.8096907818</v>
+        <v>582541.9937673917</v>
       </c>
       <c r="AE3" t="n">
-        <v>707220.4952350019</v>
+        <v>797059.6558115004</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.493768657980745e-06</v>
+        <v>3.03286681882206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.23553240740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>639724.3637599717</v>
+        <v>720989.4009411031</v>
       </c>
     </row>
     <row r="4">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.1791331367265</v>
+        <v>515.9245685593569</v>
       </c>
       <c r="AB4" t="n">
-        <v>615.9549504593401</v>
+        <v>705.9107556884881</v>
       </c>
       <c r="AC4" t="n">
-        <v>557.1690744857026</v>
+        <v>638.5396239175461</v>
       </c>
       <c r="AD4" t="n">
-        <v>450179.1331367265</v>
+        <v>515924.5685593569</v>
       </c>
       <c r="AE4" t="n">
-        <v>615954.9504593401</v>
+        <v>705910.755688488</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.574964345244802e-06</v>
+        <v>3.197722135888021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.65393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>557169.0744857026</v>
+        <v>638539.6239175461</v>
       </c>
     </row>
     <row r="5">
@@ -6344,28 +6344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>447.3830442728487</v>
+        <v>513.1284796954793</v>
       </c>
       <c r="AB5" t="n">
-        <v>612.1292183210479</v>
+        <v>702.0850235501958</v>
       </c>
       <c r="AC5" t="n">
-        <v>553.7084648532402</v>
+        <v>635.0790142850839</v>
       </c>
       <c r="AD5" t="n">
-        <v>447383.0442728488</v>
+        <v>513128.4796954793</v>
       </c>
       <c r="AE5" t="n">
-        <v>612129.218321048</v>
+        <v>702085.0235501959</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.579488104963799e-06</v>
+        <v>3.206906932124552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>553708.4648532402</v>
+        <v>635079.0142850839</v>
       </c>
     </row>
   </sheetData>
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.4946806095758</v>
+        <v>461.6030181909446</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.3427347052318</v>
+        <v>631.5856139767604</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.9142351123343</v>
+        <v>571.3079694147942</v>
       </c>
       <c r="AD2" t="n">
-        <v>401494.6806095758</v>
+        <v>461603.0181909446</v>
       </c>
       <c r="AE2" t="n">
-        <v>549342.7347052319</v>
+        <v>631585.6139767604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.591074395711703e-06</v>
+        <v>3.543011904169299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.44965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>496914.2351123343</v>
+        <v>571307.9694147942</v>
       </c>
     </row>
     <row r="3">
@@ -6747,28 +6747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.4202671295644</v>
+        <v>434.6527981230829</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.9807689119206</v>
+        <v>594.7111339201153</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.7819025456117</v>
+        <v>537.9527379810975</v>
       </c>
       <c r="AD3" t="n">
-        <v>384420.2671295644</v>
+        <v>434652.7981230829</v>
       </c>
       <c r="AE3" t="n">
-        <v>525980.7689119206</v>
+        <v>594711.1339201153</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.634770700841261e-06</v>
+        <v>3.640315040753925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.14583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>475781.9025456117</v>
+        <v>537952.7379810974</v>
       </c>
     </row>
   </sheetData>
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1239.432271652161</v>
+        <v>1346.242003745916</v>
       </c>
       <c r="AB2" t="n">
-        <v>1695.8459139672</v>
+        <v>1841.987701530691</v>
       </c>
       <c r="AC2" t="n">
-        <v>1533.996760072858</v>
+        <v>1666.190980542577</v>
       </c>
       <c r="AD2" t="n">
-        <v>1239432.271652161</v>
+        <v>1346242.003745916</v>
       </c>
       <c r="AE2" t="n">
-        <v>1695845.9139672</v>
+        <v>1841987.701530691</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.171900431739914e-07</v>
+        <v>1.734189610855986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.98495370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1533996.760072858</v>
+        <v>1666190.980542577</v>
       </c>
     </row>
     <row r="3">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>787.3774755421031</v>
+        <v>870.4327469806743</v>
       </c>
       <c r="AB3" t="n">
-        <v>1077.324598679338</v>
+        <v>1190.964485201565</v>
       </c>
       <c r="AC3" t="n">
-        <v>974.5062510159516</v>
+        <v>1077.30050626308</v>
       </c>
       <c r="AD3" t="n">
-        <v>787377.4755421031</v>
+        <v>870432.7469806743</v>
       </c>
       <c r="AE3" t="n">
-        <v>1077324.598679338</v>
+        <v>1190964.485201565</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.22844778544513e-06</v>
+        <v>2.322704441519823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>974506.2510159516</v>
+        <v>1077300.50626308</v>
       </c>
     </row>
     <row r="4">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.5956565319749</v>
+        <v>746.8590384975259</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.379782443871</v>
+        <v>1021.885485567664</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.1582733826003</v>
+        <v>924.358169050372</v>
       </c>
       <c r="AD4" t="n">
-        <v>675595.6565319749</v>
+        <v>746859.038497526</v>
       </c>
       <c r="AE4" t="n">
-        <v>924379.782443871</v>
+        <v>1021885.485567664</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348191293283049e-06</v>
+        <v>2.549111115693214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.55671296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>836158.2733826003</v>
+        <v>924358.169050372</v>
       </c>
     </row>
     <row r="5">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>625.3562761331126</v>
+        <v>684.7425172796229</v>
       </c>
       <c r="AB5" t="n">
-        <v>855.6400457771108</v>
+        <v>936.8949208498196</v>
       </c>
       <c r="AC5" t="n">
-        <v>773.9789607064893</v>
+        <v>847.4789845441923</v>
       </c>
       <c r="AD5" t="n">
-        <v>625356.2761331126</v>
+        <v>684742.517279623</v>
       </c>
       <c r="AE5" t="n">
-        <v>855640.0457771108</v>
+        <v>936894.9208498197</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.409570609351047e-06</v>
+        <v>2.665164896519501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>773978.9607064893</v>
+        <v>847478.9845441922</v>
       </c>
     </row>
     <row r="6">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>575.9255985996276</v>
+        <v>647.1036397106072</v>
       </c>
       <c r="AB6" t="n">
-        <v>788.0068120482119</v>
+        <v>885.3957480498068</v>
       </c>
       <c r="AC6" t="n">
-        <v>712.8005478808367</v>
+        <v>800.8948205166696</v>
       </c>
       <c r="AD6" t="n">
-        <v>575925.5985996276</v>
+        <v>647103.6397106072</v>
       </c>
       <c r="AE6" t="n">
-        <v>788006.8120482119</v>
+        <v>885395.7480498068</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.451028568449608e-06</v>
+        <v>2.743552099358311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.73784722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>712800.5478808366</v>
+        <v>800894.8205166695</v>
       </c>
     </row>
     <row r="7">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>544.1812823935928</v>
+        <v>603.6527748861238</v>
       </c>
       <c r="AB7" t="n">
-        <v>744.5728381547236</v>
+        <v>825.944357880082</v>
       </c>
       <c r="AC7" t="n">
-        <v>673.5118514957777</v>
+        <v>747.1173875841931</v>
       </c>
       <c r="AD7" t="n">
-        <v>544181.2823935929</v>
+        <v>603652.7748861238</v>
       </c>
       <c r="AE7" t="n">
-        <v>744572.8381547236</v>
+        <v>825944.357880082</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.47735706455246e-06</v>
+        <v>2.793333063239061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.54398148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>673511.8514957777</v>
+        <v>747117.3875841931</v>
       </c>
     </row>
     <row r="8">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>534.4194189091104</v>
+        <v>593.7203192010489</v>
       </c>
       <c r="AB8" t="n">
-        <v>731.2162258722324</v>
+        <v>812.3543338227435</v>
       </c>
       <c r="AC8" t="n">
-        <v>661.4299755434042</v>
+        <v>734.8243763491685</v>
       </c>
       <c r="AD8" t="n">
-        <v>534419.4189091104</v>
+        <v>593720.3192010489</v>
       </c>
       <c r="AE8" t="n">
-        <v>731216.2258722323</v>
+        <v>812354.3338227435</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.486456278952014e-06</v>
+        <v>2.810537527238748e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.48032407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>661429.9755434042</v>
+        <v>734824.3763491685</v>
       </c>
     </row>
     <row r="9">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>536.51723996794</v>
+        <v>595.8181402598788</v>
       </c>
       <c r="AB9" t="n">
-        <v>734.0865571942564</v>
+        <v>815.2246651447676</v>
       </c>
       <c r="AC9" t="n">
-        <v>664.0263664725898</v>
+        <v>737.420767278354</v>
       </c>
       <c r="AD9" t="n">
-        <v>536517.23996794</v>
+        <v>595818.1402598787</v>
       </c>
       <c r="AE9" t="n">
-        <v>734086.5571942565</v>
+        <v>815224.6651447676</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.485971705404108e-06</v>
+        <v>2.809621313179592e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.48321759259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>664026.3664725898</v>
+        <v>737420.767278354</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.6774463446485</v>
+        <v>424.304388052849</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.3360146391036</v>
+        <v>580.5519827223898</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.5846476279537</v>
+        <v>525.1449163011895</v>
       </c>
       <c r="AD2" t="n">
-        <v>365677.4463446485</v>
+        <v>424304.388052849</v>
       </c>
       <c r="AE2" t="n">
-        <v>500336.0146391036</v>
+        <v>580551.9827223897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628147720403065e-06</v>
+        <v>3.732637324928177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4525462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>452584.6476279537</v>
+        <v>525144.9163011895</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.8011005062381</v>
+        <v>426.4280422144384</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.2416919519998</v>
+        <v>583.4576600352862</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.2130111762509</v>
+        <v>527.7732798494866</v>
       </c>
       <c r="AD3" t="n">
-        <v>367801.1005062381</v>
+        <v>426428.0422144384</v>
       </c>
       <c r="AE3" t="n">
-        <v>503241.6919519998</v>
+        <v>583457.6600352861</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.631498348923761e-06</v>
+        <v>3.740318864460243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.42650462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>455213.0111762509</v>
+        <v>527773.2798494865</v>
       </c>
     </row>
   </sheetData>
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.5764871728546</v>
+        <v>1003.653471651539</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.627409783104</v>
+        <v>1373.242957979816</v>
       </c>
       <c r="AC2" t="n">
-        <v>1129.46016225298</v>
+        <v>1242.182577428818</v>
       </c>
       <c r="AD2" t="n">
-        <v>912576.4871728546</v>
+        <v>1003653.471651539</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248627.409783104</v>
+        <v>1373242.957979816</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.087898715049841e-06</v>
+        <v>2.132266446809049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.88715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1129460.16225298</v>
+        <v>1242182.577428818</v>
       </c>
     </row>
     <row r="3">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.637866907702</v>
+        <v>696.0096109076441</v>
       </c>
       <c r="AB3" t="n">
-        <v>858.7618189315849</v>
+        <v>952.3110554207677</v>
       </c>
       <c r="AC3" t="n">
-        <v>776.8027962125365</v>
+        <v>861.4238248683697</v>
       </c>
       <c r="AD3" t="n">
-        <v>627637.8669077021</v>
+        <v>696009.610907644</v>
       </c>
       <c r="AE3" t="n">
-        <v>858761.8189315849</v>
+        <v>952311.0554207677</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.366996373564814e-06</v>
+        <v>2.679294000387126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>776802.7962125365</v>
+        <v>861423.8248683697</v>
       </c>
     </row>
     <row r="4">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>552.501623099112</v>
+        <v>609.4781659409481</v>
       </c>
       <c r="AB4" t="n">
-        <v>755.9570953755405</v>
+        <v>833.9149149194077</v>
       </c>
       <c r="AC4" t="n">
-        <v>683.8096111853454</v>
+        <v>754.3272458464327</v>
       </c>
       <c r="AD4" t="n">
-        <v>552501.623099112</v>
+        <v>609478.1659409481</v>
       </c>
       <c r="AE4" t="n">
-        <v>755957.0953755404</v>
+        <v>833914.9149194077</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471895894635223e-06</v>
+        <v>2.884895611980652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00405092592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>683809.6111853453</v>
+        <v>754327.2458464326</v>
       </c>
     </row>
     <row r="5">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.2652422898632</v>
+        <v>566.5516454352336</v>
       </c>
       <c r="AB5" t="n">
-        <v>681.7484864120761</v>
+        <v>775.180955779061</v>
       </c>
       <c r="AC5" t="n">
-        <v>616.683367708917</v>
+        <v>701.1987733328114</v>
       </c>
       <c r="AD5" t="n">
-        <v>498265.2422898632</v>
+        <v>566551.6454352336</v>
       </c>
       <c r="AE5" t="n">
-        <v>681748.486412076</v>
+        <v>775180.9557790611</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.525465180475341e-06</v>
+        <v>2.989890671903279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.61631944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>616683.367708917</v>
+        <v>701198.7733328113</v>
       </c>
     </row>
     <row r="6">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.9632014756742</v>
+        <v>542.0249956635308</v>
       </c>
       <c r="AB6" t="n">
-        <v>663.5480473254795</v>
+        <v>741.6225115219959</v>
       </c>
       <c r="AC6" t="n">
-        <v>600.2199529842684</v>
+        <v>670.8430998960681</v>
       </c>
       <c r="AD6" t="n">
-        <v>484963.2014756742</v>
+        <v>542024.9956635308</v>
       </c>
       <c r="AE6" t="n">
-        <v>663548.0473254794</v>
+        <v>741622.5115219959</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.538955460399551e-06</v>
+        <v>3.016331434119948e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.52372685185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>600219.9529842684</v>
+        <v>670843.0998960681</v>
       </c>
     </row>
   </sheetData>
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1066.047044365363</v>
+        <v>1170.689258050261</v>
       </c>
       <c r="AB2" t="n">
-        <v>1458.612596777029</v>
+        <v>1601.788690029359</v>
       </c>
       <c r="AC2" t="n">
-        <v>1319.404657716266</v>
+        <v>1448.916225577502</v>
       </c>
       <c r="AD2" t="n">
-        <v>1066047.044365363</v>
+        <v>1170689.258050261</v>
       </c>
       <c r="AE2" t="n">
-        <v>1458612.596777029</v>
+        <v>1601788.690029358</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.991220734977386e-07</v>
+        <v>1.921015089246856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88252314814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1319404.657716266</v>
+        <v>1448916.225577502</v>
       </c>
     </row>
     <row r="3">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>711.9139960854599</v>
+        <v>781.7040083354668</v>
       </c>
       <c r="AB3" t="n">
-        <v>974.0721368730092</v>
+        <v>1069.56191055151</v>
       </c>
       <c r="AC3" t="n">
-        <v>881.1080592486788</v>
+        <v>967.4844229480426</v>
       </c>
       <c r="AD3" t="n">
-        <v>711913.9960854598</v>
+        <v>781704.0083354668</v>
       </c>
       <c r="AE3" t="n">
-        <v>974072.1368730091</v>
+        <v>1069561.91055151</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.294849483076693e-06</v>
+        <v>2.489611090850799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>881108.0592486789</v>
+        <v>967484.4229480426</v>
       </c>
     </row>
     <row r="4">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>615.3281401170946</v>
+        <v>685.0328115125299</v>
       </c>
       <c r="AB4" t="n">
-        <v>841.9191076698575</v>
+        <v>937.2921142261606</v>
       </c>
       <c r="AC4" t="n">
-        <v>761.5675296747346</v>
+        <v>847.8382703421595</v>
       </c>
       <c r="AD4" t="n">
-        <v>615328.1401170946</v>
+        <v>685032.8115125299</v>
       </c>
       <c r="AE4" t="n">
-        <v>841919.1076698574</v>
+        <v>937292.1142261606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.406734482249739e-06</v>
+        <v>2.704732723505111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.2818287037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>761567.5296747346</v>
+        <v>847838.2703421594</v>
       </c>
     </row>
     <row r="5">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>555.1063443804273</v>
+        <v>624.8962671218832</v>
       </c>
       <c r="AB5" t="n">
-        <v>759.5209899448289</v>
+        <v>855.0106411537813</v>
       </c>
       <c r="AC5" t="n">
-        <v>687.0333726588982</v>
+        <v>773.4096255770354</v>
       </c>
       <c r="AD5" t="n">
-        <v>555106.3443804274</v>
+        <v>624896.2671218832</v>
       </c>
       <c r="AE5" t="n">
-        <v>759520.9899448289</v>
+        <v>855010.6411537813</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.467667930328785e-06</v>
+        <v>2.82188965187714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.8130787037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>687033.3726588982</v>
+        <v>773409.6255770354</v>
       </c>
     </row>
     <row r="6">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>523.1560482177911</v>
+        <v>592.9459709592469</v>
       </c>
       <c r="AB6" t="n">
-        <v>715.8051851875241</v>
+        <v>811.2948363964765</v>
       </c>
       <c r="AC6" t="n">
-        <v>647.4897429521131</v>
+        <v>733.8659958702502</v>
       </c>
       <c r="AD6" t="n">
-        <v>523156.048217791</v>
+        <v>592945.9709592469</v>
       </c>
       <c r="AE6" t="n">
-        <v>715805.1851875241</v>
+        <v>811294.8363964765</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.50073981979023e-06</v>
+        <v>2.885477075647017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.57581018518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>647489.7429521132</v>
+        <v>733865.9958702503</v>
       </c>
     </row>
     <row r="7">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>512.0416478431113</v>
+        <v>570.1857828271135</v>
       </c>
       <c r="AB7" t="n">
-        <v>700.5979722621488</v>
+        <v>780.1533428854578</v>
       </c>
       <c r="AC7" t="n">
-        <v>633.7338850848784</v>
+        <v>705.6966027925627</v>
       </c>
       <c r="AD7" t="n">
-        <v>512041.6478431113</v>
+        <v>570185.7828271135</v>
       </c>
       <c r="AE7" t="n">
-        <v>700597.9722621487</v>
+        <v>780153.3428854578</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.511654091768385e-06</v>
+        <v>2.906461980008884e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.49768518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>633733.8850848783</v>
+        <v>705696.6027925627</v>
       </c>
     </row>
     <row r="8">
@@ -9843,28 +9843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>512.7403677394537</v>
+        <v>570.884502723456</v>
       </c>
       <c r="AB8" t="n">
-        <v>701.5539916496707</v>
+        <v>781.10936227298</v>
       </c>
       <c r="AC8" t="n">
-        <v>634.5986633238368</v>
+        <v>706.5613810315214</v>
       </c>
       <c r="AD8" t="n">
-        <v>512740.3677394538</v>
+        <v>570884.502723456</v>
       </c>
       <c r="AE8" t="n">
-        <v>701553.9916496708</v>
+        <v>781109.3622729799</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514176988808562e-06</v>
+        <v>2.911312761921677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.48032407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>634598.6633238369</v>
+        <v>706561.3810315214</v>
       </c>
     </row>
   </sheetData>
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1441.26831847791</v>
+        <v>1550.018766086216</v>
       </c>
       <c r="AB2" t="n">
-        <v>1972.006897612136</v>
+        <v>2120.80405776096</v>
       </c>
       <c r="AC2" t="n">
-        <v>1783.801327033096</v>
+        <v>1918.397495055444</v>
       </c>
       <c r="AD2" t="n">
-        <v>1441268.31847791</v>
+        <v>1550018.766086216</v>
       </c>
       <c r="AE2" t="n">
-        <v>1972006.897612136</v>
+        <v>2120804.05776096</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.440471044684387e-07</v>
+        <v>1.572395737669941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.14814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1783801.327033096</v>
+        <v>1918397.495055444</v>
       </c>
     </row>
     <row r="3">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>876.3768873387838</v>
+        <v>948.934109483552</v>
       </c>
       <c r="AB3" t="n">
-        <v>1199.097520276495</v>
+        <v>1298.373512613693</v>
       </c>
       <c r="AC3" t="n">
-        <v>1084.657335885245</v>
+        <v>1174.458566848511</v>
       </c>
       <c r="AD3" t="n">
-        <v>876376.8873387838</v>
+        <v>948934.109483552</v>
       </c>
       <c r="AE3" t="n">
-        <v>1199097.520276495</v>
+        <v>1298373.512613693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167446738261571e-06</v>
+        <v>2.174864726720723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.12210648148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1084657.335885245</v>
+        <v>1174458.566848511</v>
       </c>
     </row>
     <row r="4">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>737.4887265689123</v>
+        <v>810.0458592051295</v>
       </c>
       <c r="AB4" t="n">
-        <v>1009.064611397948</v>
+        <v>1108.340481265597</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.7609011172038</v>
+        <v>1002.562021299243</v>
       </c>
       <c r="AD4" t="n">
-        <v>737488.7265689123</v>
+        <v>810045.8592051296</v>
       </c>
       <c r="AE4" t="n">
-        <v>1009064.611397948</v>
+        <v>1108340.481265597</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.291904511882073e-06</v>
+        <v>2.406720119298622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.85763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>912760.9011172039</v>
+        <v>1002562.021299243</v>
       </c>
     </row>
     <row r="5">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>680.7230071900981</v>
+        <v>753.1095476257231</v>
       </c>
       <c r="AB5" t="n">
-        <v>931.3952498170615</v>
+        <v>1030.437707909864</v>
       </c>
       <c r="AC5" t="n">
-        <v>842.5041943959639</v>
+        <v>932.0941792953521</v>
       </c>
       <c r="AD5" t="n">
-        <v>680723.0071900981</v>
+        <v>753109.5476257231</v>
       </c>
       <c r="AE5" t="n">
-        <v>931395.2498170616</v>
+        <v>1030437.707909864</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.358130234893239e-06</v>
+        <v>2.53009361828414e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.27893518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>842504.1943959638</v>
+        <v>932094.1792953521</v>
       </c>
     </row>
     <row r="6">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>630.2440458378659</v>
+        <v>702.7158376195115</v>
       </c>
       <c r="AB6" t="n">
-        <v>862.327707920335</v>
+        <v>961.4868106657866</v>
       </c>
       <c r="AC6" t="n">
-        <v>780.0283617609568</v>
+        <v>869.7238589110575</v>
       </c>
       <c r="AD6" t="n">
-        <v>630244.0458378659</v>
+        <v>702715.8376195115</v>
       </c>
       <c r="AE6" t="n">
-        <v>862327.707920335</v>
+        <v>961486.8106657866</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.401910149305895e-06</v>
+        <v>2.611652278284958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>780028.3617609568</v>
+        <v>869723.8589110575</v>
       </c>
     </row>
     <row r="7">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>598.5686538182958</v>
+        <v>671.0404455999414</v>
       </c>
       <c r="AB7" t="n">
-        <v>818.988039139488</v>
+        <v>918.1471418849397</v>
       </c>
       <c r="AC7" t="n">
-        <v>740.8249701409468</v>
+        <v>830.5204672910473</v>
       </c>
       <c r="AD7" t="n">
-        <v>598568.6538182958</v>
+        <v>671040.4455999414</v>
       </c>
       <c r="AE7" t="n">
-        <v>818988.039139488</v>
+        <v>918147.1418849397</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.431714371572311e-06</v>
+        <v>2.667175283823604e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.70023148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>740824.9701409468</v>
+        <v>830520.4672910473</v>
       </c>
     </row>
     <row r="8">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>576.8083119378854</v>
+        <v>637.3579299893046</v>
       </c>
       <c r="AB8" t="n">
-        <v>789.21457938018</v>
+        <v>872.0612380587521</v>
       </c>
       <c r="AC8" t="n">
-        <v>713.8930475937537</v>
+        <v>788.832937444059</v>
       </c>
       <c r="AD8" t="n">
-        <v>576808.3119378854</v>
+        <v>637357.9299893046</v>
       </c>
       <c r="AE8" t="n">
-        <v>789214.57938018</v>
+        <v>872061.2380587521</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451301515868179e-06</v>
+        <v>2.703664648031951e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>713893.0475937538</v>
+        <v>788832.9374440589</v>
       </c>
     </row>
     <row r="9">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>560.2974844069814</v>
+        <v>620.6765102578084</v>
       </c>
       <c r="AB9" t="n">
-        <v>766.6237367460951</v>
+        <v>849.2369836498201</v>
       </c>
       <c r="AC9" t="n">
-        <v>693.4582432742191</v>
+        <v>768.1869978418731</v>
       </c>
       <c r="AD9" t="n">
-        <v>560297.4844069814</v>
+        <v>620676.5102578085</v>
       </c>
       <c r="AE9" t="n">
-        <v>766623.7367460951</v>
+        <v>849236.9836498201</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.461889161433513e-06</v>
+        <v>2.723388628685111e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.47743055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>693458.2432742191</v>
+        <v>768186.9978418731</v>
       </c>
     </row>
     <row r="10">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>560.3341413431865</v>
+        <v>620.7131671940136</v>
       </c>
       <c r="AB10" t="n">
-        <v>766.6738923834006</v>
+        <v>849.2871392871258</v>
       </c>
       <c r="AC10" t="n">
-        <v>693.5036121278941</v>
+        <v>768.2323666955482</v>
       </c>
       <c r="AD10" t="n">
-        <v>560334.1413431865</v>
+        <v>620713.1671940136</v>
       </c>
       <c r="AE10" t="n">
-        <v>766673.8923834006</v>
+        <v>849287.1392871258</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.463953752318754e-06</v>
+        <v>2.727234804912478e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.46296296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>693503.6121278942</v>
+        <v>768232.3666955482</v>
       </c>
     </row>
   </sheetData>
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.6027322489587</v>
+        <v>859.3959184526877</v>
       </c>
       <c r="AB2" t="n">
-        <v>1054.372654856213</v>
+        <v>1175.863409499063</v>
       </c>
       <c r="AC2" t="n">
-        <v>953.7448084980512</v>
+        <v>1063.640656031132</v>
       </c>
       <c r="AD2" t="n">
-        <v>770602.7322489587</v>
+        <v>859395.9184526878</v>
       </c>
       <c r="AE2" t="n">
-        <v>1054372.654856213</v>
+        <v>1175863.409499063</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.188603676815584e-06</v>
+        <v>2.382552926277751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.94097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>953744.8084980511</v>
+        <v>1063640.656031132</v>
       </c>
     </row>
     <row r="3">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.7470504227234</v>
+        <v>621.2993591567854</v>
       </c>
       <c r="AB3" t="n">
-        <v>759.0293881009676</v>
+        <v>850.0891929915545</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.5886886050477</v>
+        <v>768.9578735201155</v>
       </c>
       <c r="AD3" t="n">
-        <v>554747.0504227234</v>
+        <v>621299.3591567854</v>
       </c>
       <c r="AE3" t="n">
-        <v>759029.3881009676</v>
+        <v>850089.1929915545</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.448671581625239e-06</v>
+        <v>2.903858353579826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.4380787037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>686588.6886050476</v>
+        <v>768957.8735201155</v>
       </c>
     </row>
     <row r="4">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.2055029739588</v>
+        <v>544.8430630540415</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.3018661068154</v>
+        <v>745.4783156500515</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.8562143240168</v>
+        <v>674.3309114897971</v>
       </c>
       <c r="AD4" t="n">
-        <v>478205.5029739588</v>
+        <v>544843.0630540415</v>
       </c>
       <c r="AE4" t="n">
-        <v>654301.8661068154</v>
+        <v>745478.3156500515</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.543455193706273e-06</v>
+        <v>3.093851853290228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.73784722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>591856.2143240168</v>
+        <v>674330.9114897972</v>
       </c>
     </row>
     <row r="5">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.7543138375336</v>
+        <v>528.3918739176163</v>
       </c>
       <c r="AB5" t="n">
-        <v>631.7926233551165</v>
+        <v>722.9690728983526</v>
       </c>
       <c r="AC5" t="n">
-        <v>571.4952221086195</v>
+        <v>653.9699192743999</v>
       </c>
       <c r="AD5" t="n">
-        <v>461754.3138375336</v>
+        <v>528391.8739176163</v>
       </c>
       <c r="AE5" t="n">
-        <v>631792.6233551165</v>
+        <v>722969.0728983526</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56464548764584e-06</v>
+        <v>3.136327741443007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.59027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>571495.2221086195</v>
+        <v>653969.9192743999</v>
       </c>
     </row>
     <row r="6">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>463.6873072513612</v>
+        <v>530.3248673314438</v>
       </c>
       <c r="AB6" t="n">
-        <v>634.4374302215662</v>
+        <v>725.6138797648023</v>
       </c>
       <c r="AC6" t="n">
-        <v>573.8876123197449</v>
+        <v>656.3623094855252</v>
       </c>
       <c r="AD6" t="n">
-        <v>463687.3072513612</v>
+        <v>530324.8673314438</v>
       </c>
       <c r="AE6" t="n">
-        <v>634437.4302215661</v>
+        <v>725613.8797648023</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.564130048063526e-06</v>
+        <v>3.135294544163615e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.59606481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>573887.6123197449</v>
+        <v>656362.3094855252</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.7348548710702</v>
+        <v>657.166257064603</v>
       </c>
       <c r="AB2" t="n">
-        <v>797.3235368819846</v>
+        <v>899.1638650448905</v>
       </c>
       <c r="AC2" t="n">
-        <v>721.2280975725796</v>
+        <v>813.3489277494159</v>
       </c>
       <c r="AD2" t="n">
-        <v>582734.8548710701</v>
+        <v>657166.2570646029</v>
       </c>
       <c r="AE2" t="n">
-        <v>797323.5368819847</v>
+        <v>899163.8650448904</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364485534635875e-06</v>
+        <v>2.854589070541276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>721228.0975725796</v>
+        <v>813348.9277494159</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.5118991206076</v>
+        <v>496.2980523072682</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.7818614551304</v>
+        <v>679.0568902915927</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.3030311689112</v>
+        <v>614.2486537444936</v>
       </c>
       <c r="AD3" t="n">
-        <v>432511.8991206075</v>
+        <v>496298.0523072681</v>
       </c>
       <c r="AE3" t="n">
-        <v>591781.8614551304</v>
+        <v>679056.8902915927</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.585158496887453e-06</v>
+        <v>3.316250707998961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>535303.0311689111</v>
+        <v>614248.6537444936</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.7509694268279</v>
+        <v>484.5371226134885</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.690038592502</v>
+        <v>662.9650674289643</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.7469892952766</v>
+        <v>599.6926118708593</v>
       </c>
       <c r="AD4" t="n">
-        <v>420750.9694268279</v>
+        <v>484537.1226134885</v>
       </c>
       <c r="AE4" t="n">
-        <v>575690.038592502</v>
+        <v>662965.0674289643</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.605442034915444e-06</v>
+        <v>3.358685138043734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>520746.9892952767</v>
+        <v>599692.6118708593</v>
       </c>
     </row>
   </sheetData>
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.5705168083891</v>
+        <v>518.162828025753</v>
       </c>
       <c r="AB2" t="n">
-        <v>624.6999235668563</v>
+        <v>708.97324103545</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.0794396334842</v>
+        <v>641.3098299612192</v>
       </c>
       <c r="AD2" t="n">
-        <v>456570.5168083891</v>
+        <v>518162.828025753</v>
       </c>
       <c r="AE2" t="n">
-        <v>624699.9235668563</v>
+        <v>708973.24103545</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.512953472040948e-06</v>
+        <v>3.28894263472113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80266203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>565079.4396334842</v>
+        <v>641309.8299612192</v>
       </c>
     </row>
     <row r="3">
@@ -21874,28 +21874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.0761288572908</v>
+        <v>451.5830992200832</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.7193684468053</v>
+        <v>617.8759187932011</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.7819410020796</v>
+        <v>558.9067082978759</v>
       </c>
       <c r="AD3" t="n">
-        <v>390076.1288572908</v>
+        <v>451583.0992200832</v>
       </c>
       <c r="AE3" t="n">
-        <v>533719.3684468053</v>
+        <v>617875.9187932011</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627986318830161e-06</v>
+        <v>3.539007452436915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.9693287037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>482781.9410020796</v>
+        <v>558906.7082978758</v>
       </c>
     </row>
   </sheetData>
@@ -22171,28 +22171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.959155185531</v>
+        <v>412.3751148636719</v>
       </c>
       <c r="AB2" t="n">
-        <v>473.3565787655882</v>
+        <v>564.2298248625677</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.1800912483305</v>
+        <v>510.3805222792163</v>
       </c>
       <c r="AD2" t="n">
-        <v>345959.155185531</v>
+        <v>412375.1148636718</v>
       </c>
       <c r="AE2" t="n">
-        <v>473356.5787655882</v>
+        <v>564229.8248625677</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.602731075537394e-06</v>
+        <v>3.812139078442017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95891203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>428180.0912483305</v>
+        <v>510380.5222792163</v>
       </c>
     </row>
   </sheetData>
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>993.0238297621023</v>
+        <v>1085.039287970739</v>
       </c>
       <c r="AB2" t="n">
-        <v>1358.699012999986</v>
+        <v>1484.598622356558</v>
       </c>
       <c r="AC2" t="n">
-        <v>1229.026686145308</v>
+        <v>1342.9106134861</v>
       </c>
       <c r="AD2" t="n">
-        <v>993023.8297621023</v>
+        <v>1085039.287970739</v>
       </c>
       <c r="AE2" t="n">
-        <v>1358699.012999986</v>
+        <v>1484598.622356558</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042442834656133e-06</v>
+        <v>2.022941834455557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.37615740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1229026.686145308</v>
+        <v>1342910.6134861</v>
       </c>
     </row>
     <row r="3">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.0409274161257</v>
+        <v>743.0952138770267</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.2525334777587</v>
+        <v>1016.735654673673</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.234046072201</v>
+        <v>919.699830789071</v>
       </c>
       <c r="AD3" t="n">
-        <v>674040.9274161257</v>
+        <v>743095.2138770267</v>
       </c>
       <c r="AE3" t="n">
-        <v>922252.5334777586</v>
+        <v>1016735.654673673</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.332204164593229e-06</v>
+        <v>2.585246353082318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>834234.046072201</v>
+        <v>919699.830789071</v>
       </c>
     </row>
     <row r="4">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.6336996072196</v>
+        <v>641.2500706215385</v>
       </c>
       <c r="AB4" t="n">
-        <v>798.5533759042155</v>
+        <v>877.3866365809005</v>
       </c>
       <c r="AC4" t="n">
-        <v>722.3405624846185</v>
+        <v>793.6500874054972</v>
       </c>
       <c r="AD4" t="n">
-        <v>583633.6996072195</v>
+        <v>641250.0706215384</v>
       </c>
       <c r="AE4" t="n">
-        <v>798553.3759042155</v>
+        <v>877386.6365809005</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.439002070178915e-06</v>
+        <v>2.792496039932327e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>722340.5624846185</v>
+        <v>793650.0874054972</v>
       </c>
     </row>
     <row r="5">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>525.1147318094046</v>
+        <v>594.1689287617544</v>
       </c>
       <c r="AB5" t="n">
-        <v>718.4851424885911</v>
+        <v>812.9681412149575</v>
       </c>
       <c r="AC5" t="n">
-        <v>649.9139288897102</v>
+        <v>735.3796028253537</v>
       </c>
       <c r="AD5" t="n">
-        <v>525114.7318094046</v>
+        <v>594168.9287617544</v>
       </c>
       <c r="AE5" t="n">
-        <v>718485.1424885911</v>
+        <v>812968.1412149576</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.497275616172765e-06</v>
+        <v>2.905580412632643e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70601851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>649913.9288897102</v>
+        <v>735379.6028253537</v>
       </c>
     </row>
     <row r="6">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>497.7380460796626</v>
+        <v>555.4396684400023</v>
       </c>
       <c r="AB6" t="n">
-        <v>681.0271532990246</v>
+        <v>759.9770586283589</v>
       </c>
       <c r="AC6" t="n">
-        <v>616.0308776157776</v>
+        <v>687.4459147873685</v>
       </c>
       <c r="AD6" t="n">
-        <v>497738.0460796626</v>
+        <v>555439.6684400022</v>
       </c>
       <c r="AE6" t="n">
-        <v>681027.1532990246</v>
+        <v>759977.0586283589</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524141271882857e-06</v>
+        <v>2.957715318297713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5150462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>616030.8776157777</v>
+        <v>687445.9147873685</v>
       </c>
     </row>
     <row r="7">
@@ -22998,28 +22998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>497.899517241176</v>
+        <v>555.6011396015155</v>
       </c>
       <c r="AB7" t="n">
-        <v>681.2480852658117</v>
+        <v>760.1979905951463</v>
       </c>
       <c r="AC7" t="n">
-        <v>616.2307241457349</v>
+        <v>687.6457613173257</v>
       </c>
       <c r="AD7" t="n">
-        <v>497899.517241176</v>
+        <v>555601.1396015155</v>
       </c>
       <c r="AE7" t="n">
-        <v>681248.0852658118</v>
+        <v>760197.9905951463</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526190816751462e-06</v>
+        <v>2.961692620379377e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5005787037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>616230.7241457349</v>
+        <v>687645.7613173256</v>
       </c>
     </row>
   </sheetData>
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1337.270804619672</v>
+        <v>1445.152280956792</v>
       </c>
       <c r="AB2" t="n">
-        <v>1829.71291110479</v>
+        <v>1977.321106424073</v>
       </c>
       <c r="AC2" t="n">
-        <v>1655.087678887148</v>
+        <v>1788.608355214561</v>
       </c>
       <c r="AD2" t="n">
-        <v>1337270.804619672</v>
+        <v>1445152.280956792</v>
       </c>
       <c r="AE2" t="n">
-        <v>1829712.91110479</v>
+        <v>1977321.106424073</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800522899122918e-07</v>
+        <v>1.651323278120066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.54918981481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>1655087.678887148</v>
+        <v>1788608.355214562</v>
       </c>
     </row>
     <row r="3">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>824.2681733605773</v>
+        <v>908.090647434877</v>
       </c>
       <c r="AB3" t="n">
-        <v>1127.800078937299</v>
+        <v>1242.489685952321</v>
       </c>
       <c r="AC3" t="n">
-        <v>1020.164422280874</v>
+        <v>1123.908214170257</v>
       </c>
       <c r="AD3" t="n">
-        <v>824268.1733605773</v>
+        <v>908090.647434877</v>
       </c>
       <c r="AE3" t="n">
-        <v>1127800.078937299</v>
+        <v>1242489.685952321</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.198028361423636e-06</v>
+        <v>2.247971107789577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.89351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1020164.422280874</v>
+        <v>1123908.214170257</v>
       </c>
     </row>
     <row r="4">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.329246037168</v>
+        <v>779.2502302619148</v>
       </c>
       <c r="AB4" t="n">
-        <v>967.799079592039</v>
+        <v>1066.204543138227</v>
       </c>
       <c r="AC4" t="n">
-        <v>875.4336937503134</v>
+        <v>964.4474779685892</v>
       </c>
       <c r="AD4" t="n">
-        <v>707329.246037168</v>
+        <v>779250.2302619148</v>
       </c>
       <c r="AE4" t="n">
-        <v>967799.079592039</v>
+        <v>1066204.543138227</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.318610524516489e-06</v>
+        <v>2.474230541602474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>875433.6937503134</v>
+        <v>964447.4779685892</v>
       </c>
     </row>
     <row r="5">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.4883990099976</v>
+        <v>710.4226420391709</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.0269250482744</v>
+        <v>972.0316004729797</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.0840044823011</v>
+        <v>879.2622687787574</v>
       </c>
       <c r="AD5" t="n">
-        <v>650488.3990099976</v>
+        <v>710422.642039171</v>
       </c>
       <c r="AE5" t="n">
-        <v>890026.9250482743</v>
+        <v>972031.6004729797</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386828321963441e-06</v>
+        <v>2.602233886628097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>805084.0044823011</v>
+        <v>879262.2687787574</v>
       </c>
     </row>
     <row r="6">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>603.1313540330895</v>
+        <v>674.9669974032646</v>
       </c>
       <c r="AB6" t="n">
-        <v>825.2309268654957</v>
+        <v>923.5196232894864</v>
       </c>
       <c r="AC6" t="n">
-        <v>746.4720454243324</v>
+        <v>835.3802066106691</v>
       </c>
       <c r="AD6" t="n">
-        <v>603131.3540330895</v>
+        <v>674966.9974032646</v>
       </c>
       <c r="AE6" t="n">
-        <v>825230.9268654957</v>
+        <v>923519.6232894864</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425901426604419e-06</v>
+        <v>2.675550356548876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>746472.0454243324</v>
+        <v>835380.2066106691</v>
       </c>
     </row>
     <row r="7">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>574.5196042269974</v>
+        <v>646.3552475971726</v>
       </c>
       <c r="AB7" t="n">
-        <v>786.0830685194852</v>
+        <v>884.3717649434758</v>
       </c>
       <c r="AC7" t="n">
-        <v>711.0604037345006</v>
+        <v>799.9685649208375</v>
       </c>
       <c r="AD7" t="n">
-        <v>574519.6042269975</v>
+        <v>646355.2475971726</v>
       </c>
       <c r="AE7" t="n">
-        <v>786083.0685194852</v>
+        <v>884371.7649434758</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.454138683920098e-06</v>
+        <v>2.728534526751188e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.62210648148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>711060.4037345006</v>
+        <v>799968.5649208375</v>
       </c>
     </row>
     <row r="8">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>550.74867490903</v>
+        <v>610.7681692842239</v>
       </c>
       <c r="AB8" t="n">
-        <v>753.5586343272539</v>
+        <v>835.6799544046088</v>
       </c>
       <c r="AC8" t="n">
-        <v>681.640055893246</v>
+        <v>755.9238324404146</v>
       </c>
       <c r="AD8" t="n">
-        <v>550748.67490903</v>
+        <v>610768.1692842238</v>
       </c>
       <c r="AE8" t="n">
-        <v>753558.6343272539</v>
+        <v>835679.9544046088</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470045494279403e-06</v>
+        <v>2.75838194210145e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.50636574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>681640.055893246</v>
+        <v>755923.8324404146</v>
       </c>
     </row>
     <row r="9">
@@ -24037,28 +24037,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>548.1546721451408</v>
+        <v>608.0035743197425</v>
       </c>
       <c r="AB9" t="n">
-        <v>750.0094053063757</v>
+        <v>831.8973136088832</v>
       </c>
       <c r="AC9" t="n">
-        <v>678.4295603087462</v>
+        <v>752.5022015732635</v>
       </c>
       <c r="AD9" t="n">
-        <v>548154.6721451408</v>
+        <v>608003.5743197425</v>
       </c>
       <c r="AE9" t="n">
-        <v>750009.4053063757</v>
+        <v>831897.3136088832</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.474636050289135e-06</v>
+        <v>2.766995625726022e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.47453703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>678429.5603087462</v>
+        <v>752502.2015732635</v>
       </c>
     </row>
   </sheetData>
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.5982910780737</v>
+        <v>396.5595383660251</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.3898521060187</v>
+        <v>542.590255364496</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.7828206067969</v>
+        <v>490.8062029227141</v>
       </c>
       <c r="AD2" t="n">
-        <v>341598.2910780737</v>
+        <v>396559.5383660251</v>
       </c>
       <c r="AE2" t="n">
-        <v>467389.8521060187</v>
+        <v>542590.255364496</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.516556351203001e-06</v>
+        <v>3.792792343607468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.08738425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>422782.8206067969</v>
+        <v>490806.2029227141</v>
       </c>
     </row>
   </sheetData>
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>652.1938240666278</v>
+        <v>717.0775954212363</v>
       </c>
       <c r="AB2" t="n">
-        <v>892.3603628487992</v>
+        <v>981.1372012861437</v>
       </c>
       <c r="AC2" t="n">
-        <v>807.1947422541444</v>
+        <v>887.4988438301041</v>
       </c>
       <c r="AD2" t="n">
-        <v>652193.8240666278</v>
+        <v>717077.5954212364</v>
       </c>
       <c r="AE2" t="n">
-        <v>892360.3628487992</v>
+        <v>981137.2012861437</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.29991822341789e-06</v>
+        <v>2.676900094392114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.08449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>807194.7422541444</v>
+        <v>887498.8438301041</v>
       </c>
     </row>
     <row r="3">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.0275706958698</v>
+        <v>533.0973950761354</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.4266554310024</v>
+        <v>729.4073745403809</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.8736553337551</v>
+        <v>659.793758443926</v>
       </c>
       <c r="AD3" t="n">
-        <v>479027.5706958698</v>
+        <v>533097.3950761354</v>
       </c>
       <c r="AE3" t="n">
-        <v>655426.6554310024</v>
+        <v>729407.3745403809</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539361373019059e-06</v>
+        <v>3.169981411525756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.05034722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>592873.6553337551</v>
+        <v>659793.758443926</v>
       </c>
     </row>
     <row r="4">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.4427141772766</v>
+        <v>497.2410551687624</v>
       </c>
       <c r="AB4" t="n">
-        <v>591.6871995634409</v>
+        <v>680.3471484090393</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.2174036753054</v>
+        <v>615.4157714380999</v>
       </c>
       <c r="AD4" t="n">
-        <v>432442.7141772766</v>
+        <v>497241.0551687625</v>
       </c>
       <c r="AE4" t="n">
-        <v>591687.1995634409</v>
+        <v>680347.1484090392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.595033521968803e-06</v>
+        <v>3.28462614693591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.66550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>535217.4036753054</v>
+        <v>615415.7714380999</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>847.0555435864487</v>
+        <v>925.7994435418431</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.978764188159</v>
+        <v>1266.719642042817</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.367457570952</v>
+        <v>1145.825697258434</v>
       </c>
       <c r="AD2" t="n">
-        <v>847055.5435864488</v>
+        <v>925799.4435418431</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158978.764188159</v>
+        <v>1266719.642042818</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.135682102483713e-06</v>
+        <v>2.249995337476849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048367.457570952</v>
+        <v>1145825.697258434</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>590.2920755034042</v>
+        <v>657.8599194760457</v>
       </c>
       <c r="AB3" t="n">
-        <v>807.6636595521883</v>
+        <v>900.1129645584519</v>
       </c>
       <c r="AC3" t="n">
-        <v>730.5813734475923</v>
+        <v>814.2074465374727</v>
       </c>
       <c r="AD3" t="n">
-        <v>590292.0755034043</v>
+        <v>657859.9194760456</v>
       </c>
       <c r="AE3" t="n">
-        <v>807663.6595521882</v>
+        <v>900112.9645584519</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407419444822328e-06</v>
+        <v>2.788357042696204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.63773148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>730581.3734475924</v>
+        <v>814207.4465374728</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.6123980078656</v>
+        <v>577.0949011259353</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.2741654666266</v>
+        <v>789.6067033506927</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.7272977449286</v>
+        <v>714.2477478028702</v>
       </c>
       <c r="AD4" t="n">
-        <v>509612.3980078656</v>
+        <v>577094.9011259353</v>
       </c>
       <c r="AE4" t="n">
-        <v>697274.1654666266</v>
+        <v>789606.7033506926</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.507035716956459e-06</v>
+        <v>2.985715218323378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>630727.2977449286</v>
+        <v>714247.7478028702</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>474.9665255617584</v>
+        <v>542.4490286798282</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.8701543178443</v>
+        <v>742.2026922019104</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.8474588882386</v>
+        <v>671.3679089461803</v>
       </c>
       <c r="AD5" t="n">
-        <v>474966.5255617584</v>
+        <v>542449.0286798282</v>
       </c>
       <c r="AE5" t="n">
-        <v>649870.1543178443</v>
+        <v>742202.6922019104</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.549655633386573e-06</v>
+        <v>3.070153119600231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.56712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>587847.4588882386</v>
+        <v>671367.9089461803</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>472.8937710767382</v>
+        <v>529.2856485751777</v>
       </c>
       <c r="AB6" t="n">
-        <v>647.0341201879656</v>
+        <v>724.1919748153831</v>
       </c>
       <c r="AC6" t="n">
-        <v>585.2820918753167</v>
+        <v>655.0761091488225</v>
       </c>
       <c r="AD6" t="n">
-        <v>472893.7710767383</v>
+        <v>529285.6485751776</v>
       </c>
       <c r="AE6" t="n">
-        <v>647034.1201879657</v>
+        <v>724191.9748153831</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.553730844519333e-06</v>
+        <v>3.078226863148616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.54108796296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>585282.0918753167</v>
+        <v>655076.1091488225</v>
       </c>
     </row>
   </sheetData>
